--- a/Jogos_do_Dia/2024-04-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1723,13 +1723,13 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="L2">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -1750,10 +1750,10 @@
         <v>2.88</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -1854,13 +1854,13 @@
         <v>3.8</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1985,13 +1985,13 @@
         <v>2.38</v>
       </c>
       <c r="J4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L4">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M4">
         <v>1.32</v>
@@ -2012,10 +2012,10 @@
         <v>4.38</v>
       </c>
       <c r="S4">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T4">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="U4">
         <v>1.57</v>
@@ -2119,10 +2119,10 @@
         <v>1.5</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M5">
         <v>1.22</v>
@@ -2247,13 +2247,13 @@
         <v>3.1</v>
       </c>
       <c r="J6">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L6">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="M6">
         <v>1.25</v>
@@ -2378,13 +2378,13 @@
         <v>2.75</v>
       </c>
       <c r="J7">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="M7">
         <v>1.2</v>
@@ -2512,10 +2512,10 @@
         <v>1.3</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M8">
         <v>1.25</v>
@@ -2640,13 +2640,13 @@
         <v>4.5</v>
       </c>
       <c r="J9">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="K9">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="M9">
         <v>1.3</v>
@@ -2667,10 +2667,10 @@
         <v>4</v>
       </c>
       <c r="S9">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T9">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <v>1.65</v>
@@ -2774,10 +2774,10 @@
         <v>2.1</v>
       </c>
       <c r="K10">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="M10">
         <v>1.4</v>
@@ -2798,10 +2798,10 @@
         <v>3.25</v>
       </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T10">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U10">
         <v>1.75</v>
@@ -2902,13 +2902,13 @@
         <v>4.5</v>
       </c>
       <c r="J11">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K11">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L11">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M11">
         <v>1.58</v>
@@ -2926,7 +2926,7 @@
         <v>1.5</v>
       </c>
       <c r="R11">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S11">
         <v>2.55</v>
@@ -3033,13 +3033,13 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M12">
         <v>1.47</v>
@@ -3060,10 +3060,10 @@
         <v>2.85</v>
       </c>
       <c r="S12">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="T12">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U12">
         <v>2.05</v>
@@ -3164,13 +3164,13 @@
         <v>3.75</v>
       </c>
       <c r="J13">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="K13">
+        <v>3.65</v>
+      </c>
+      <c r="L13">
         <v>3.75</v>
-      </c>
-      <c r="L13">
-        <v>3.25</v>
       </c>
       <c r="M13">
         <v>1.3</v>
@@ -3191,10 +3191,10 @@
         <v>4.33</v>
       </c>
       <c r="S13">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T13">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U13">
         <v>1.57</v>
@@ -3295,13 +3295,13 @@
         <v>4.75</v>
       </c>
       <c r="J14">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
         <v>1.44</v>
@@ -3322,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U14">
         <v>1.95</v>
@@ -3426,13 +3426,13 @@
         <v>4.33</v>
       </c>
       <c r="J15">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K15">
         <v>3.2</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M15">
         <v>1.53</v>
@@ -3453,10 +3453,10 @@
         <v>2.6</v>
       </c>
       <c r="S15">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="T15">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U15">
         <v>2.1</v>
@@ -3557,13 +3557,13 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M16">
         <v>1.32</v>
@@ -3584,10 +3584,10 @@
         <v>4</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="T16">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="U16">
         <v>1.78</v>
@@ -3688,13 +3688,13 @@
         <v>2.67</v>
       </c>
       <c r="J17">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K17">
         <v>3.5</v>
       </c>
       <c r="L17">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M17">
         <v>1.33</v>
@@ -3715,10 +3715,10 @@
         <v>3.8</v>
       </c>
       <c r="S17">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U17">
         <v>1.57</v>
@@ -3819,13 +3819,13 @@
         <v>3</v>
       </c>
       <c r="J18">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="K18">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L18">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M18">
         <v>1.4</v>
@@ -3846,10 +3846,10 @@
         <v>3.25</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U18">
         <v>1.75</v>
@@ -3977,10 +3977,10 @@
         <v>3.8</v>
       </c>
       <c r="S19">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T19">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="U19">
         <v>1.85</v>
@@ -4081,13 +4081,13 @@
         <v>4.5</v>
       </c>
       <c r="J20">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="K20">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="M20">
         <v>1.33</v>
@@ -4212,13 +4212,13 @@
         <v>2.05</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L21">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M21">
         <v>1.3</v>
@@ -4239,10 +4239,10 @@
         <v>3.8</v>
       </c>
       <c r="S21">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U21">
         <v>1.75</v>
@@ -4343,13 +4343,13 @@
         <v>4.33</v>
       </c>
       <c r="J22">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="K22">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -4370,10 +4370,10 @@
         <v>2.9</v>
       </c>
       <c r="S22">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="T22">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U22">
         <v>1.95</v>
@@ -4474,13 +4474,13 @@
         <v>4.9</v>
       </c>
       <c r="J23">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="K23">
         <v>3.8</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M23">
         <v>1.33</v>
@@ -4501,10 +4501,10 @@
         <v>3.7</v>
       </c>
       <c r="S23">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U23">
         <v>1.8</v>
@@ -4605,10 +4605,10 @@
         <v>4.83</v>
       </c>
       <c r="J24">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
         <v>3.8</v>
@@ -4632,10 +4632,10 @@
         <v>3.2</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="T24">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U24">
         <v>1.89</v>
@@ -4736,13 +4736,13 @@
         <v>2.8</v>
       </c>
       <c r="J25">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="M25">
         <v>1.6</v>
@@ -4760,7 +4760,7 @@
         <v>1.5</v>
       </c>
       <c r="R25">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S25">
         <v>2.6</v>
@@ -4867,13 +4867,13 @@
         <v>3.6</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="M26">
         <v>1.3</v>
@@ -4894,10 +4894,10 @@
         <v>4.33</v>
       </c>
       <c r="S26">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
         <v>1.57</v>
@@ -5001,10 +5001,10 @@
         <v>1.11</v>
       </c>
       <c r="K27">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M27">
         <v>1.18</v>
@@ -5129,13 +5129,13 @@
         <v>6.5</v>
       </c>
       <c r="J28">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M28">
         <v>1.25</v>
@@ -5260,13 +5260,13 @@
         <v>3.75</v>
       </c>
       <c r="J29">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="K29">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="M29">
         <v>1.29</v>
@@ -5287,10 +5287,10 @@
         <v>5</v>
       </c>
       <c r="S29">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="T29">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="U29">
         <v>1.53</v>
@@ -5391,13 +5391,13 @@
         <v>2.5</v>
       </c>
       <c r="J30">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K30">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L30">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="M30">
         <v>1.22</v>
@@ -5522,13 +5522,13 @@
         <v>3.2</v>
       </c>
       <c r="J31">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="K31">
         <v>3.3</v>
       </c>
       <c r="L31">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M31">
         <v>1.41</v>
@@ -5784,13 +5784,13 @@
         <v>5.25</v>
       </c>
       <c r="J33">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>4.09</v>
       </c>
       <c r="L33">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="M33">
         <v>1.33</v>
@@ -5811,10 +5811,10 @@
         <v>3.6</v>
       </c>
       <c r="S33">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>1.8</v>
@@ -6046,13 +6046,13 @@
         <v>3.6</v>
       </c>
       <c r="J35">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="K35">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
         <v>1.25</v>
@@ -6076,7 +6076,7 @@
         <v>1.5</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U35">
         <v>1.45</v>
@@ -6177,13 +6177,13 @@
         <v>4</v>
       </c>
       <c r="J36">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="M36">
         <v>1.36</v>
@@ -6204,10 +6204,10 @@
         <v>3.75</v>
       </c>
       <c r="S36">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U36">
         <v>1.73</v>
@@ -6308,13 +6308,13 @@
         <v>4</v>
       </c>
       <c r="J37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
         <v>1.36</v>
@@ -6335,10 +6335,10 @@
         <v>3.55</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U37">
         <v>1.73</v>
@@ -6439,13 +6439,13 @@
         <v>3.6</v>
       </c>
       <c r="J38">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K38">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L38">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
         <v>1.33</v>
@@ -6466,10 +6466,10 @@
         <v>3.85</v>
       </c>
       <c r="S38">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="T38">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="U38">
         <v>1.62</v>
@@ -6570,13 +6570,13 @@
         <v>3.2</v>
       </c>
       <c r="J39">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L39">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="M39">
         <v>1.36</v>
@@ -6597,10 +6597,10 @@
         <v>3.7</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T39">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U39">
         <v>1.67</v>
@@ -6701,13 +6701,13 @@
         <v>3.4</v>
       </c>
       <c r="J40">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="K40">
         <v>3.6</v>
       </c>
       <c r="L40">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="M40">
         <v>1.33</v>
@@ -6728,10 +6728,10 @@
         <v>4</v>
       </c>
       <c r="S40">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="U40">
         <v>1.57</v>
@@ -6832,13 +6832,13 @@
         <v>3.5</v>
       </c>
       <c r="J41">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K41">
         <v>3.5</v>
       </c>
       <c r="L41">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>1.36</v>
@@ -6859,10 +6859,10 @@
         <v>3.85</v>
       </c>
       <c r="S41">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U41">
         <v>1.62</v>
@@ -6963,13 +6963,13 @@
         <v>7</v>
       </c>
       <c r="J42">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="K42">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="M42">
         <v>1.29</v>
@@ -6990,10 +6990,10 @@
         <v>4.5</v>
       </c>
       <c r="S42">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U42">
         <v>1.83</v>
@@ -7094,13 +7094,13 @@
         <v>3.1</v>
       </c>
       <c r="J43">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L43">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M43">
         <v>1.33</v>
@@ -7121,10 +7121,10 @@
         <v>3.85</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U43">
         <v>1.62</v>
@@ -7225,13 +7225,13 @@
         <v>4</v>
       </c>
       <c r="J44">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K44">
         <v>3.6</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
         <v>1.4</v>
@@ -7252,10 +7252,10 @@
         <v>3.55</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T44">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U44">
         <v>1.73</v>
@@ -7359,10 +7359,10 @@
         <v>1.4</v>
       </c>
       <c r="K45">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M45">
         <v>1.29</v>
@@ -7383,10 +7383,10 @@
         <v>4.5</v>
       </c>
       <c r="S45">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U45">
         <v>1.8</v>
@@ -7487,13 +7487,13 @@
         <v>3.25</v>
       </c>
       <c r="J46">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="K46">
         <v>3.4</v>
       </c>
       <c r="L46">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="M46">
         <v>1.4</v>
@@ -7514,10 +7514,10 @@
         <v>3.25</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T46">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -7618,13 +7618,13 @@
         <v>3.5</v>
       </c>
       <c r="J47">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
         <v>1.36</v>
@@ -7645,10 +7645,10 @@
         <v>3.55</v>
       </c>
       <c r="S47">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T47">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U47">
         <v>1.67</v>
@@ -7752,10 +7752,10 @@
         <v>5</v>
       </c>
       <c r="K48">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M48">
         <v>1.36</v>
@@ -7776,10 +7776,10 @@
         <v>3.7</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="T48">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U48">
         <v>1.91</v>
@@ -7880,13 +7880,13 @@
         <v>4</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
         <v>1.44</v>
@@ -7907,10 +7907,10 @@
         <v>3.1</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T49">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U49">
         <v>1.95</v>
@@ -8011,13 +8011,13 @@
         <v>4</v>
       </c>
       <c r="J50">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K50">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
         <v>1.4</v>
@@ -8038,10 +8038,10 @@
         <v>3.45</v>
       </c>
       <c r="S50">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T50">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U50">
         <v>1.75</v>
@@ -8145,10 +8145,10 @@
         <v>1.65</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="M51">
         <v>1.44</v>
@@ -8169,10 +8169,10 @@
         <v>3.2</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T51">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U51">
         <v>2</v>
@@ -8273,13 +8273,13 @@
         <v>3.1</v>
       </c>
       <c r="J52">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="K52">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="M52">
         <v>1.33</v>
@@ -8303,7 +8303,7 @@
         <v>1.65</v>
       </c>
       <c r="T52">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U52">
         <v>1.57</v>
@@ -8404,13 +8404,13 @@
         <v>4.5</v>
       </c>
       <c r="J53">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="K53">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
         <v>1.44</v>
@@ -8431,10 +8431,10 @@
         <v>3.2</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T53">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U53">
         <v>1.95</v>
@@ -8535,13 +8535,13 @@
         <v>3.5</v>
       </c>
       <c r="J54">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K54">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="L54">
-        <v>2.31</v>
+        <v>2.65</v>
       </c>
       <c r="M54">
         <v>1.5</v>
@@ -8562,7 +8562,7 @@
         <v>2.9</v>
       </c>
       <c r="S54">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T54">
         <v>1.62</v>
@@ -8666,13 +8666,13 @@
         <v>4.33</v>
       </c>
       <c r="J55">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K55">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L55">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
         <v>1.33</v>
@@ -8696,7 +8696,7 @@
         <v>1.7</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U55">
         <v>1.67</v>
@@ -8797,13 +8797,13 @@
         <v>3.25</v>
       </c>
       <c r="J56">
+        <v>2.4</v>
+      </c>
+      <c r="K56">
+        <v>3.5</v>
+      </c>
+      <c r="L56">
         <v>2.7</v>
-      </c>
-      <c r="K56">
-        <v>3.4</v>
-      </c>
-      <c r="L56">
-        <v>2.5</v>
       </c>
       <c r="M56">
         <v>1.36</v>
@@ -8824,10 +8824,10 @@
         <v>3.85</v>
       </c>
       <c r="S56">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="T56">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="U56">
         <v>1.62</v>
@@ -8928,13 +8928,13 @@
         <v>3.75</v>
       </c>
       <c r="J57">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
         <v>1.36</v>
@@ -8955,10 +8955,10 @@
         <v>3.55</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T57">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U57">
         <v>1.73</v>
@@ -9059,13 +9059,13 @@
         <v>6</v>
       </c>
       <c r="J58">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L58">
-        <v>5.87</v>
+        <v>4.9</v>
       </c>
       <c r="M58">
         <v>1.36</v>
@@ -9086,10 +9086,10 @@
         <v>3.55</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T58">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -9190,13 +9190,13 @@
         <v>6</v>
       </c>
       <c r="J59">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="K59">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L59">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="M59">
         <v>1.25</v>
@@ -9321,13 +9321,13 @@
         <v>3</v>
       </c>
       <c r="J60">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="M60">
         <v>1.36</v>
@@ -9348,10 +9348,10 @@
         <v>3.6</v>
       </c>
       <c r="S60">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="T60">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U60">
         <v>1.62</v>
@@ -9455,7 +9455,7 @@
         <v>3.6</v>
       </c>
       <c r="K61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -9479,7 +9479,7 @@
         <v>2.93</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T61">
         <v>1.7</v>
@@ -9583,13 +9583,13 @@
         <v>2.5</v>
       </c>
       <c r="J62">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L62">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="M62">
         <v>1.3</v>
@@ -9610,10 +9610,10 @@
         <v>4.85</v>
       </c>
       <c r="S62">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T62">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U62">
         <v>1.57</v>
@@ -9714,13 +9714,13 @@
         <v>13</v>
       </c>
       <c r="J63">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M63">
         <v>1.17</v>
@@ -9845,13 +9845,13 @@
         <v>3.6</v>
       </c>
       <c r="J64">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="M64">
         <v>1.36</v>
@@ -9872,10 +9872,10 @@
         <v>3.9</v>
       </c>
       <c r="S64">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T64">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="U64">
         <v>1.67</v>
@@ -9979,10 +9979,10 @@
         <v>3</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L65">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="M65">
         <v>1.33</v>
@@ -10003,10 +10003,10 @@
         <v>3.75</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="T65">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U65">
         <v>1.62</v>
@@ -10030,13 +10030,13 @@
         <v>1.33</v>
       </c>
       <c r="AB65">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AC65">
         <v>1.37</v>
       </c>
       <c r="AD65">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AE65">
         <v>2.6</v>
@@ -10107,13 +10107,13 @@
         <v>4</v>
       </c>
       <c r="J66">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="K66">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M66">
         <v>1.5</v>
@@ -10134,10 +10134,10 @@
         <v>2.88</v>
       </c>
       <c r="S66">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="T66">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U66">
         <v>1.83</v>
@@ -10161,13 +10161,13 @@
         <v>0.86</v>
       </c>
       <c r="AB66">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AC66">
         <v>1.15</v>
       </c>
       <c r="AD66">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AE66">
         <v>1.66</v>
@@ -10238,13 +10238,13 @@
         <v>4</v>
       </c>
       <c r="J67">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M67">
         <v>1.44</v>
@@ -10265,10 +10265,10 @@
         <v>3.1</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="T67">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U67">
         <v>1.83</v>
@@ -10292,13 +10292,13 @@
         <v>1.24</v>
       </c>
       <c r="AB67">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AC67">
         <v>1.03</v>
       </c>
       <c r="AD67">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AE67">
         <v>1.66</v>
@@ -10369,13 +10369,13 @@
         <v>4.33</v>
       </c>
       <c r="J68">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M68">
         <v>1.3</v>
@@ -10396,10 +10396,10 @@
         <v>4.33</v>
       </c>
       <c r="S68">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="T68">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
         <v>1.62</v>
@@ -10423,13 +10423,13 @@
         <v>1.48</v>
       </c>
       <c r="AB68">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AC68">
         <v>1.36</v>
       </c>
       <c r="AD68">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="AE68">
         <v>1.71</v>
@@ -10503,7 +10503,7 @@
         <v>1.33</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L69">
         <v>8.5</v>
@@ -10527,10 +10527,10 @@
         <v>4.2</v>
       </c>
       <c r="S69">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U69">
         <v>2.05</v>
@@ -10631,13 +10631,13 @@
         <v>3.5</v>
       </c>
       <c r="J70">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L70">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M70">
         <v>1.44</v>
@@ -10658,10 +10658,10 @@
         <v>2.9</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="T70">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U70">
         <v>1.83</v>
@@ -10688,10 +10688,10 @@
         <v>1.28</v>
       </c>
       <c r="AC70">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AD70">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AE70">
         <v>2.05</v>
@@ -10762,13 +10762,13 @@
         <v>5</v>
       </c>
       <c r="J71">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L71">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M71">
         <v>1.53</v>
@@ -10789,10 +10789,10 @@
         <v>2.75</v>
       </c>
       <c r="S71">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="T71">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U71">
         <v>2.1</v>
@@ -10819,10 +10819,10 @@
         <v>1.36</v>
       </c>
       <c r="AC71">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD71">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AE71">
         <v>1.42</v>
@@ -10893,13 +10893,13 @@
         <v>4</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="M72">
         <v>1.4</v>
@@ -10920,10 +10920,10 @@
         <v>3.25</v>
       </c>
       <c r="S72">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U72">
         <v>1.8</v>
@@ -11024,13 +11024,13 @@
         <v>3.1</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K73">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L73">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -11054,7 +11054,7 @@
         <v>1.98</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U73">
         <v>1.73</v>
@@ -11155,13 +11155,13 @@
         <v>3.45</v>
       </c>
       <c r="J74">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="K74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="M74">
         <v>1.38</v>
@@ -11182,10 +11182,10 @@
         <v>3.55</v>
       </c>
       <c r="S74">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T74">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U74">
         <v>1.62</v>
@@ -11286,13 +11286,13 @@
         <v>3.5</v>
       </c>
       <c r="J75">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K75">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="L75">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
         <v>1.5</v>
@@ -11313,7 +11313,7 @@
         <v>2.48</v>
       </c>
       <c r="S75">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="T75">
         <v>1.5</v>
@@ -11420,10 +11420,10 @@
         <v>1.53</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="M76">
         <v>1.4</v>
@@ -11444,10 +11444,10 @@
         <v>3.3</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U76">
         <v>2.05</v>
@@ -11548,13 +11548,13 @@
         <v>6.5</v>
       </c>
       <c r="J77">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="K77">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L77">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="M77">
         <v>1.33</v>
@@ -11575,10 +11575,10 @@
         <v>4</v>
       </c>
       <c r="S77">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U77">
         <v>1.91</v>
@@ -11679,13 +11679,13 @@
         <v>6</v>
       </c>
       <c r="J78">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L78">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="M78">
         <v>1.25</v>
@@ -11736,10 +11736,10 @@
         <v>1.79</v>
       </c>
       <c r="AC78">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AD78">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="AE78">
         <v>1.2</v>
@@ -11810,10 +11810,10 @@
         <v>9.5</v>
       </c>
       <c r="J79">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K79">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="L79">
         <v>12</v>
@@ -11941,13 +11941,13 @@
         <v>4.75</v>
       </c>
       <c r="J80">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="K80">
         <v>3.5</v>
       </c>
       <c r="L80">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="M80">
         <v>1.44</v>
@@ -11968,10 +11968,10 @@
         <v>3.25</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U80">
         <v>1.91</v>
@@ -12072,13 +12072,13 @@
         <v>4.5</v>
       </c>
       <c r="J81">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L81">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="M81">
         <v>1.37</v>
@@ -12203,13 +12203,13 @@
         <v>3.25</v>
       </c>
       <c r="J82">
+        <v>2.8</v>
+      </c>
+      <c r="K82">
+        <v>2.9</v>
+      </c>
+      <c r="L82">
         <v>2.7</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="L82">
-        <v>2.62</v>
       </c>
       <c r="M82">
         <v>1.48</v>
@@ -12230,10 +12230,10 @@
         <v>2.9</v>
       </c>
       <c r="S82">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T82">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U82">
         <v>1.87</v>
@@ -12334,13 +12334,13 @@
         <v>3</v>
       </c>
       <c r="J83">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="K83">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="L83">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M83">
         <v>1.39</v>
@@ -12361,10 +12361,10 @@
         <v>3.5</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U83">
         <v>1.68</v>
@@ -12465,13 +12465,13 @@
         <v>4.33</v>
       </c>
       <c r="J84">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
         <v>1.57</v>
@@ -12486,16 +12486,16 @@
         <v>7</v>
       </c>
       <c r="Q84">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R84">
-        <v>2.51</v>
+        <v>2.35</v>
       </c>
       <c r="S84">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="T84">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U84">
         <v>2.1</v>
@@ -12596,13 +12596,13 @@
         <v>5</v>
       </c>
       <c r="J85">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K85">
         <v>3.5</v>
       </c>
       <c r="L85">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="M85">
         <v>1.48</v>
@@ -12623,10 +12623,10 @@
         <v>2.8</v>
       </c>
       <c r="S85">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="T85">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U85">
         <v>2.1</v>
@@ -12727,13 +12727,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L86">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -12858,13 +12858,13 @@
         <v>4.45</v>
       </c>
       <c r="J87">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
         <v>1.44</v>
@@ -12885,10 +12885,10 @@
         <v>2.93</v>
       </c>
       <c r="S87">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T87">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U87">
         <v>1.89</v>
@@ -12995,7 +12995,7 @@
         <v>12</v>
       </c>
       <c r="L88">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M88">
         <v>1.15</v>
@@ -13120,13 +13120,13 @@
         <v>4.3</v>
       </c>
       <c r="J89">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K89">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M89">
         <v>1.45</v>
@@ -13147,10 +13147,10 @@
         <v>2.9</v>
       </c>
       <c r="S89">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="T89">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U89">
         <v>1.93</v>
@@ -13251,13 +13251,13 @@
         <v>3.08</v>
       </c>
       <c r="J90">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="K90">
         <v>3.1</v>
       </c>
       <c r="L90">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="M90">
         <v>1.43</v>
@@ -13278,10 +13278,10 @@
         <v>3.14</v>
       </c>
       <c r="S90">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="T90">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U90">
         <v>1.75</v>
@@ -13382,13 +13382,13 @@
         <v>8.98</v>
       </c>
       <c r="J91">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="K91">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L91">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="M91">
         <v>1.39</v>
@@ -13409,10 +13409,10 @@
         <v>3.1</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T91">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U91">
         <v>2.35</v>
@@ -13644,13 +13644,13 @@
         <v>3.2</v>
       </c>
       <c r="J93">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="K93">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M93">
         <v>1.44</v>
@@ -13671,10 +13671,10 @@
         <v>3.1</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="U93">
         <v>1.91</v>
@@ -13775,10 +13775,10 @@
         <v>3.25</v>
       </c>
       <c r="J94">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="K94">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L94">
         <v>2.45</v>
@@ -13906,13 +13906,13 @@
         <v>2.63</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K95">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M95">
         <v>1.5</v>
@@ -13933,10 +13933,10 @@
         <v>2.8</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T95">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="U95">
         <v>2.05</v>
@@ -14037,13 +14037,13 @@
         <v>3.6</v>
       </c>
       <c r="J96">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="K96">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="M96">
         <v>1.5</v>
@@ -14064,10 +14064,10 @@
         <v>2.8</v>
       </c>
       <c r="S96">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T96">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="U96">
         <v>1.95</v>
@@ -14168,13 +14168,13 @@
         <v>2.4</v>
       </c>
       <c r="J97">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="K97">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L97">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="M97">
         <v>1.41</v>
@@ -14195,10 +14195,10 @@
         <v>3.14</v>
       </c>
       <c r="S97">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T97">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U97">
         <v>1.87</v>
@@ -14299,13 +14299,13 @@
         <v>4.5</v>
       </c>
       <c r="J98">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K98">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="M98">
         <v>1.38</v>
@@ -14430,13 +14430,13 @@
         <v>3.96</v>
       </c>
       <c r="J99">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L99">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
         <v>1.44</v>
@@ -14457,10 +14457,10 @@
         <v>2.9</v>
       </c>
       <c r="S99">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T99">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -14561,13 +14561,13 @@
         <v>3.1</v>
       </c>
       <c r="J100">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="K100">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L100">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="M100">
         <v>1.57</v>
@@ -14588,10 +14588,10 @@
         <v>2.45</v>
       </c>
       <c r="S100">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="T100">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U100">
         <v>2.2</v>
@@ -14692,13 +14692,13 @@
         <v>4.3</v>
       </c>
       <c r="J101">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L101">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M101">
         <v>1.3</v>
@@ -14719,10 +14719,10 @@
         <v>4.5</v>
       </c>
       <c r="S101">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="T101">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
         <v>1.52</v>
@@ -15085,13 +15085,13 @@
         <v>3.34</v>
       </c>
       <c r="J104">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L104">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="M104">
         <v>1.36</v>
@@ -15112,10 +15112,10 @@
         <v>3.55</v>
       </c>
       <c r="S104">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T104">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U104">
         <v>1.62</v>
@@ -15216,13 +15216,13 @@
         <v>4.7</v>
       </c>
       <c r="J105">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K105">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4.86</v>
       </c>
       <c r="M105">
         <v>1.34</v>
@@ -15243,10 +15243,10 @@
         <v>3.65</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U105">
         <v>1.7</v>
@@ -15347,13 +15347,13 @@
         <v>3.78</v>
       </c>
       <c r="J106">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="K106">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="M106">
         <v>1.47</v>
@@ -15374,7 +15374,7 @@
         <v>2.79</v>
       </c>
       <c r="S106">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T106">
         <v>1.65</v>
@@ -15478,13 +15478,13 @@
         <v>6.9</v>
       </c>
       <c r="J107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K107">
-        <v>4.8</v>
+        <v>5.48</v>
       </c>
       <c r="L107">
-        <v>8</v>
+        <v>9.01</v>
       </c>
       <c r="M107">
         <v>1.31</v>
@@ -15505,10 +15505,10 @@
         <v>4.1</v>
       </c>
       <c r="S107">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T107">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="U107">
         <v>1.94</v>
@@ -15609,13 +15609,13 @@
         <v>2.5</v>
       </c>
       <c r="J108">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K108">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M108">
         <v>1.33</v>
@@ -15636,10 +15636,10 @@
         <v>3.8</v>
       </c>
       <c r="S108">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U108">
         <v>1.62</v>
@@ -15740,13 +15740,13 @@
         <v>4.5</v>
       </c>
       <c r="J109">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="K109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L109">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M109">
         <v>1.33</v>
@@ -15767,10 +15767,10 @@
         <v>3.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T109">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U109">
         <v>1.7</v>
@@ -15874,10 +15874,10 @@
         <v>1.53</v>
       </c>
       <c r="K110">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="L110">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M110">
         <v>1.29</v>
@@ -15898,10 +15898,10 @@
         <v>4.75</v>
       </c>
       <c r="S110">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="U110">
         <v>1.67</v>
@@ -16002,13 +16002,13 @@
         <v>3.1</v>
       </c>
       <c r="J111">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L111">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="M111">
         <v>1.22</v>
@@ -16133,13 +16133,13 @@
         <v>2.38</v>
       </c>
       <c r="J112">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K112">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L112">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="M112">
         <v>1.44</v>
@@ -16264,13 +16264,13 @@
         <v>3.84</v>
       </c>
       <c r="J113">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K113">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M113">
         <v>1.48</v>
@@ -16291,10 +16291,10 @@
         <v>2.72</v>
       </c>
       <c r="S113">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T113">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U113">
         <v>1.94</v>
@@ -16395,13 +16395,13 @@
         <v>5</v>
       </c>
       <c r="J114">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="K114">
         <v>3.5</v>
       </c>
       <c r="L114">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="M114">
         <v>1.48</v>
@@ -16422,10 +16422,10 @@
         <v>2.75</v>
       </c>
       <c r="S114">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T114">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U114">
         <v>2.1</v>
@@ -16526,13 +16526,13 @@
         <v>7</v>
       </c>
       <c r="J115">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="K115">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L115">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="M115">
         <v>1.23</v>
@@ -16788,13 +16788,13 @@
         <v>4</v>
       </c>
       <c r="J117">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="M117">
         <v>1.44</v>
@@ -16815,10 +16815,10 @@
         <v>3.1</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T117">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U117">
         <v>1.83</v>
@@ -16919,13 +16919,13 @@
         <v>3.65</v>
       </c>
       <c r="J118">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K118">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="M118">
         <v>1.4</v>
@@ -17050,13 +17050,13 @@
         <v>3</v>
       </c>
       <c r="J119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L119">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="M119">
         <v>1.48</v>
@@ -17077,10 +17077,10 @@
         <v>2.95</v>
       </c>
       <c r="S119">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T119">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U119">
         <v>1.83</v>
@@ -17181,13 +17181,13 @@
         <v>4</v>
       </c>
       <c r="J120">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K120">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M120">
         <v>1.55</v>
@@ -17208,10 +17208,10 @@
         <v>2.47</v>
       </c>
       <c r="S120">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="T120">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U120">
         <v>2</v>
@@ -17315,10 +17315,10 @@
         <v>2.8</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L121">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M121">
         <v>1.55</v>
@@ -17339,10 +17339,10 @@
         <v>2.55</v>
       </c>
       <c r="S121">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="T121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U121">
         <v>2</v>
@@ -17443,13 +17443,13 @@
         <v>2.8</v>
       </c>
       <c r="J122">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="M122">
         <v>1.48</v>
@@ -17470,10 +17470,10 @@
         <v>2.8</v>
       </c>
       <c r="S122">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T122">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U122">
         <v>1.91</v>
@@ -17574,13 +17574,13 @@
         <v>2.75</v>
       </c>
       <c r="J123">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L123">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="M123">
         <v>1.45</v>
@@ -17601,10 +17601,10 @@
         <v>3</v>
       </c>
       <c r="S123">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="T123">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U123">
         <v>1.85</v>
@@ -17705,13 +17705,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="K124">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L124">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -17732,10 +17732,10 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U124">
         <v>0</v>
@@ -17836,13 +17836,13 @@
         <v>4</v>
       </c>
       <c r="J125">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K125">
+        <v>3.29</v>
+      </c>
+      <c r="L125">
         <v>3.25</v>
-      </c>
-      <c r="L125">
-        <v>3.2</v>
       </c>
       <c r="M125">
         <v>1.44</v>
@@ -17863,10 +17863,10 @@
         <v>2.98</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="U125">
         <v>1.8</v>
@@ -17967,13 +17967,13 @@
         <v>3</v>
       </c>
       <c r="J126">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K126">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="L126">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M126">
         <v>1.44</v>
@@ -17994,10 +17994,10 @@
         <v>3.1</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U126">
         <v>1.77</v>
@@ -18098,13 +18098,13 @@
         <v>4</v>
       </c>
       <c r="J127">
-        <v>2.15</v>
+        <v>2.59</v>
       </c>
       <c r="K127">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M127">
         <v>1.55</v>
@@ -18360,13 +18360,13 @@
         <v>3.4</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K129">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="M129">
         <v>1.37</v>
@@ -18387,10 +18387,10 @@
         <v>3.4</v>
       </c>
       <c r="S129">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="T129">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U129">
         <v>1.7</v>
@@ -18491,13 +18491,13 @@
         <v>4.33</v>
       </c>
       <c r="J130">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="K130">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M130">
         <v>1.28</v>
@@ -18518,10 +18518,10 @@
         <v>4.75</v>
       </c>
       <c r="S130">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="U130">
         <v>1.55</v>
@@ -18622,13 +18622,13 @@
         <v>5.25</v>
       </c>
       <c r="J131">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="K131">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L131">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M131">
         <v>1.22</v>
@@ -18753,13 +18753,13 @@
         <v>5.47</v>
       </c>
       <c r="J132">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M132">
         <v>1.5</v>
@@ -18780,10 +18780,10 @@
         <v>2.55</v>
       </c>
       <c r="S132">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="T132">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U132">
         <v>2.15</v>
@@ -18884,13 +18884,13 @@
         <v>4.52</v>
       </c>
       <c r="J133">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="K133">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L133">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M133">
         <v>1.3</v>
@@ -18911,10 +18911,10 @@
         <v>4.33</v>
       </c>
       <c r="S133">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="T133">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="U133">
         <v>1.55</v>
@@ -19015,13 +19015,13 @@
         <v>6</v>
       </c>
       <c r="J134">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L134">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="M134">
         <v>1.4</v>
@@ -19042,10 +19042,10 @@
         <v>3.4</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T134">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U134">
         <v>2</v>
@@ -19146,13 +19146,13 @@
         <v>3.1</v>
       </c>
       <c r="J135">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K135">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L135">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M135">
         <v>1.35</v>
@@ -19277,13 +19277,13 @@
         <v>2.5</v>
       </c>
       <c r="J136">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K136">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L136">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="M136">
         <v>1.4</v>
@@ -19304,10 +19304,10 @@
         <v>3.4</v>
       </c>
       <c r="S136">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U136">
         <v>1.8</v>
@@ -19408,13 +19408,13 @@
         <v>4.5</v>
       </c>
       <c r="J137">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="K137">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="M137">
         <v>1.36</v>
@@ -19539,10 +19539,10 @@
         <v>5</v>
       </c>
       <c r="J138">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="K138">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L138">
         <v>5</v>
@@ -19566,10 +19566,10 @@
         <v>3</v>
       </c>
       <c r="S138">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T138">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U138">
         <v>2.05</v>
@@ -19673,10 +19673,10 @@
         <v>4</v>
       </c>
       <c r="K139">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L139">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -19697,10 +19697,10 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="T139">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="U139">
         <v>0</v>
